--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dll1-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dll1-Notch4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.77869133333333</v>
+        <v>17.76613666666667</v>
       </c>
       <c r="H2">
-        <v>53.336074</v>
+        <v>53.29841</v>
       </c>
       <c r="I2">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="J2">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.253984</v>
+        <v>49.89274333333334</v>
       </c>
       <c r="N2">
-        <v>141.761952</v>
+        <v>149.67823</v>
       </c>
       <c r="O2">
-        <v>0.8884015114449556</v>
+        <v>0.8663408689480834</v>
       </c>
       <c r="P2">
-        <v>0.8884015114449555</v>
+        <v>0.8663408689480835</v>
       </c>
       <c r="Q2">
-        <v>840.113995806272</v>
+        <v>886.4012967349223</v>
       </c>
       <c r="R2">
-        <v>7561.025962256448</v>
+        <v>7977.611670614301</v>
       </c>
       <c r="S2">
-        <v>0.6711834306818241</v>
+        <v>0.682017352875275</v>
       </c>
       <c r="T2">
-        <v>0.671183430681824</v>
+        <v>0.682017352875275</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.77869133333333</v>
+        <v>17.76613666666667</v>
       </c>
       <c r="H3">
-        <v>53.336074</v>
+        <v>53.29841</v>
       </c>
       <c r="I3">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="J3">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>12.067552</v>
       </c>
       <c r="O3">
-        <v>0.07562559124637756</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="P3">
-        <v>0.07562559124637755</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="Q3">
-        <v>71.51509405231643</v>
+        <v>71.46459268803555</v>
       </c>
       <c r="R3">
-        <v>643.6358464708479</v>
+        <v>643.18133419232</v>
       </c>
       <c r="S3">
-        <v>0.05713480124265859</v>
+        <v>0.05498648581510304</v>
       </c>
       <c r="T3">
-        <v>0.05713480124265857</v>
+        <v>0.05498648581510304</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.77869133333333</v>
+        <v>17.76613666666667</v>
       </c>
       <c r="H4">
-        <v>53.336074</v>
+        <v>53.29841</v>
       </c>
       <c r="I4">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="J4">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7893206666666667</v>
+        <v>1.266267666666667</v>
       </c>
       <c r="N4">
-        <v>2.367962</v>
+        <v>3.798803</v>
       </c>
       <c r="O4">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="P4">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="Q4">
-        <v>14.03308849568755</v>
+        <v>22.49668442258112</v>
       </c>
       <c r="R4">
-        <v>126.297796461188</v>
+        <v>202.47015980323</v>
       </c>
       <c r="S4">
-        <v>0.01121130766373895</v>
+        <v>0.01730946154397104</v>
       </c>
       <c r="T4">
-        <v>0.01121130766373895</v>
+        <v>0.01730946154397105</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.77869133333333</v>
+        <v>17.76613666666667</v>
       </c>
       <c r="H5">
-        <v>53.336074</v>
+        <v>53.29841</v>
       </c>
       <c r="I5">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="J5">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.320979</v>
+        <v>0.2206823333333333</v>
       </c>
       <c r="N5">
-        <v>0.9629369999999999</v>
+        <v>0.6620469999999999</v>
       </c>
       <c r="O5">
-        <v>0.006034585967229564</v>
+        <v>0.003831942516052412</v>
       </c>
       <c r="P5">
-        <v>0.006034585967229563</v>
+        <v>0.003831942516052413</v>
       </c>
       <c r="Q5">
-        <v>5.706586565481999</v>
+        <v>3.920672493918889</v>
       </c>
       <c r="R5">
-        <v>51.359279089338</v>
+        <v>35.28605244527</v>
       </c>
       <c r="S5">
-        <v>0.004559103130792552</v>
+        <v>0.003016654742770656</v>
       </c>
       <c r="T5">
-        <v>0.004559103130792551</v>
+        <v>0.003016654742770656</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.77869133333333</v>
+        <v>17.76613666666667</v>
       </c>
       <c r="H6">
-        <v>53.336074</v>
+        <v>53.29841</v>
       </c>
       <c r="I6">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="J6">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.803095</v>
+        <v>2.187988666666667</v>
       </c>
       <c r="N6">
-        <v>2.409285</v>
+        <v>6.563966</v>
       </c>
       <c r="O6">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="P6">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="Q6">
-        <v>14.27797811634333</v>
+        <v>38.87210567711778</v>
       </c>
       <c r="R6">
-        <v>128.50180304709</v>
+        <v>349.84895109406</v>
       </c>
       <c r="S6">
-        <v>0.01140695475038506</v>
+        <v>0.02990908374373018</v>
       </c>
       <c r="T6">
-        <v>0.01140695475038505</v>
+        <v>0.02990908374373018</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>2.470084</v>
       </c>
       <c r="I7">
-        <v>0.03498828180303642</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="J7">
-        <v>0.03498828180303641</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>47.253984</v>
+        <v>49.89274333333334</v>
       </c>
       <c r="N7">
-        <v>141.761952</v>
+        <v>149.67823</v>
       </c>
       <c r="O7">
-        <v>0.8884015114449556</v>
+        <v>0.8663408689480834</v>
       </c>
       <c r="P7">
-        <v>0.8884015114449555</v>
+        <v>0.8663408689480835</v>
       </c>
       <c r="Q7">
-        <v>38.907103271552</v>
+        <v>41.07975567459111</v>
       </c>
       <c r="R7">
-        <v>350.163929443968</v>
+        <v>369.71780107132</v>
       </c>
       <c r="S7">
-        <v>0.03108364243667959</v>
+        <v>0.03160769994939006</v>
       </c>
       <c r="T7">
-        <v>0.03108364243667958</v>
+        <v>0.03160769994939006</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>2.470084</v>
       </c>
       <c r="I8">
-        <v>0.03498828180303642</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="J8">
-        <v>0.03498828180303641</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>12.067552</v>
       </c>
       <c r="O8">
-        <v>0.07562559124637756</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="P8">
-        <v>0.07562559124637755</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="Q8">
         <v>3.311985234929777</v>
@@ -948,10 +948,10 @@
         <v>29.807867114368</v>
       </c>
       <c r="S8">
-        <v>0.002646009498049502</v>
+        <v>0.002548316897785749</v>
       </c>
       <c r="T8">
-        <v>0.002646009498049501</v>
+        <v>0.002548316897785749</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>2.470084</v>
       </c>
       <c r="I9">
-        <v>0.03498828180303642</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="J9">
-        <v>0.03498828180303641</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7893206666666667</v>
+        <v>1.266267666666667</v>
       </c>
       <c r="N9">
-        <v>2.367962</v>
+        <v>3.798803</v>
       </c>
       <c r="O9">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="P9">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="Q9">
-        <v>0.6498961165342222</v>
+        <v>1.042595834383556</v>
       </c>
       <c r="R9">
-        <v>5.849065048808</v>
+        <v>9.383362509452001</v>
       </c>
       <c r="S9">
-        <v>0.0005192146628429939</v>
+        <v>0.0008021969887728015</v>
       </c>
       <c r="T9">
-        <v>0.0005192146628429936</v>
+        <v>0.0008021969887728016</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>2.470084</v>
       </c>
       <c r="I10">
-        <v>0.03498828180303642</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="J10">
-        <v>0.03498828180303641</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.320979</v>
+        <v>0.2206823333333333</v>
       </c>
       <c r="N10">
-        <v>0.9629369999999999</v>
+        <v>0.6620469999999999</v>
       </c>
       <c r="O10">
-        <v>0.006034585967229564</v>
+        <v>0.003831942516052412</v>
       </c>
       <c r="P10">
-        <v>0.006034585967229563</v>
+        <v>0.003831942516052413</v>
       </c>
       <c r="Q10">
-        <v>0.264281697412</v>
+        <v>0.1817013002164444</v>
       </c>
       <c r="R10">
-        <v>2.378535276708</v>
+        <v>1.635311701948</v>
       </c>
       <c r="S10">
-        <v>0.0002111397943860771</v>
+        <v>0.0001398051201460215</v>
       </c>
       <c r="T10">
-        <v>0.000211139794386077</v>
+        <v>0.0001398051201460215</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>2.470084</v>
       </c>
       <c r="I11">
-        <v>0.03498828180303642</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="J11">
-        <v>0.03498828180303641</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.803095</v>
+        <v>2.187988666666667</v>
       </c>
       <c r="N11">
-        <v>2.409285</v>
+        <v>6.563966</v>
       </c>
       <c r="O11">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="P11">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="Q11">
-        <v>0.6612373699933333</v>
+        <v>1.801505265904889</v>
       </c>
       <c r="R11">
-        <v>5.95113632994</v>
+        <v>16.213547393144</v>
       </c>
       <c r="S11">
-        <v>0.0005282754110782531</v>
+        <v>0.001386119195864342</v>
       </c>
       <c r="T11">
-        <v>0.000528275411078253</v>
+        <v>0.001386119195864342</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.922581666666667</v>
+        <v>3.885299333333334</v>
       </c>
       <c r="H12">
-        <v>14.767745</v>
+        <v>11.655898</v>
       </c>
       <c r="I12">
-        <v>0.2091823693669455</v>
+        <v>0.1721623203571791</v>
       </c>
       <c r="J12">
-        <v>0.2091823693669454</v>
+        <v>0.172162320357179</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.253984</v>
+        <v>49.89274333333334</v>
       </c>
       <c r="N12">
-        <v>141.761952</v>
+        <v>149.67823</v>
       </c>
       <c r="O12">
-        <v>0.8884015114449556</v>
+        <v>0.8663408689480834</v>
       </c>
       <c r="P12">
-        <v>0.8884015114449555</v>
+        <v>0.8663408689480835</v>
       </c>
       <c r="Q12">
-        <v>232.61159531536</v>
+        <v>193.8482424111711</v>
       </c>
       <c r="R12">
-        <v>2093.50435783824</v>
+        <v>1744.63418170054</v>
       </c>
       <c r="S12">
-        <v>0.1858379331132313</v>
+        <v>0.1491512542183568</v>
       </c>
       <c r="T12">
-        <v>0.1858379331132312</v>
+        <v>0.1491512542183568</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.922581666666667</v>
+        <v>3.885299333333334</v>
       </c>
       <c r="H13">
-        <v>14.767745</v>
+        <v>11.655898</v>
       </c>
       <c r="I13">
-        <v>0.2091823693669455</v>
+        <v>0.1721623203571791</v>
       </c>
       <c r="J13">
-        <v>0.2091823693669454</v>
+        <v>0.172162320357179</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>12.067552</v>
       </c>
       <c r="O13">
-        <v>0.07562559124637756</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="P13">
-        <v>0.07562559124637755</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="Q13">
-        <v>19.80117007891555</v>
+        <v>15.62868391352178</v>
       </c>
       <c r="R13">
-        <v>178.21053071024</v>
+        <v>140.658155221696</v>
       </c>
       <c r="S13">
-        <v>0.01581954036169339</v>
+        <v>0.01202506547642393</v>
       </c>
       <c r="T13">
-        <v>0.01581954036169338</v>
+        <v>0.01202506547642393</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.922581666666667</v>
+        <v>3.885299333333334</v>
       </c>
       <c r="H14">
-        <v>14.767745</v>
+        <v>11.655898</v>
       </c>
       <c r="I14">
-        <v>0.2091823693669455</v>
+        <v>0.1721623203571791</v>
       </c>
       <c r="J14">
-        <v>0.2091823693669454</v>
+        <v>0.172162320357179</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7893206666666667</v>
+        <v>1.266267666666667</v>
       </c>
       <c r="N14">
-        <v>2.367962</v>
+        <v>3.798803</v>
       </c>
       <c r="O14">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="P14">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="Q14">
-        <v>3.885495442854445</v>
+        <v>4.919828921121557</v>
       </c>
       <c r="R14">
-        <v>34.96945898569</v>
+        <v>44.278460290094</v>
       </c>
       <c r="S14">
-        <v>0.003104197971051312</v>
+        <v>0.003785428461964419</v>
       </c>
       <c r="T14">
-        <v>0.00310419797105131</v>
+        <v>0.003785428461964419</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.922581666666667</v>
+        <v>3.885299333333334</v>
       </c>
       <c r="H15">
-        <v>14.767745</v>
+        <v>11.655898</v>
       </c>
       <c r="I15">
-        <v>0.2091823693669455</v>
+        <v>0.1721623203571791</v>
       </c>
       <c r="J15">
-        <v>0.2091823693669454</v>
+        <v>0.172162320357179</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.320979</v>
+        <v>0.2206823333333333</v>
       </c>
       <c r="N15">
-        <v>0.9629369999999999</v>
+        <v>0.6620469999999999</v>
       </c>
       <c r="O15">
-        <v>0.006034585967229564</v>
+        <v>0.003831942516052412</v>
       </c>
       <c r="P15">
-        <v>0.006034585967229563</v>
+        <v>0.003831942516052413</v>
       </c>
       <c r="Q15">
-        <v>1.580045340785</v>
+        <v>0.8574169225784445</v>
       </c>
       <c r="R15">
-        <v>14.220408067065</v>
+        <v>7.716752303205999</v>
       </c>
       <c r="S15">
-        <v>0.0012623289907736</v>
+        <v>0.0006597161150389102</v>
       </c>
       <c r="T15">
-        <v>0.0012623289907736</v>
+        <v>0.0006597161150389102</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.922581666666667</v>
+        <v>3.885299333333334</v>
       </c>
       <c r="H16">
-        <v>14.767745</v>
+        <v>11.655898</v>
       </c>
       <c r="I16">
-        <v>0.2091823693669455</v>
+        <v>0.1721623203571791</v>
       </c>
       <c r="J16">
-        <v>0.2091823693669454</v>
+        <v>0.172162320357179</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.803095</v>
+        <v>2.187988666666667</v>
       </c>
       <c r="N16">
-        <v>2.409285</v>
+        <v>6.563966</v>
       </c>
       <c r="O16">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="P16">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="Q16">
-        <v>3.953300723591667</v>
+        <v>8.500990907940889</v>
       </c>
       <c r="R16">
-        <v>35.579706512325</v>
+        <v>76.508918171468</v>
       </c>
       <c r="S16">
-        <v>0.003158368930195822</v>
+        <v>0.006540856085394988</v>
       </c>
       <c r="T16">
-        <v>0.003158368930195821</v>
+        <v>0.006540856085394987</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.007854</v>
+        <v>0.09285466666666665</v>
       </c>
       <c r="H17">
-        <v>0.023562</v>
+        <v>0.278564</v>
       </c>
       <c r="I17">
-        <v>0.0003337513606189685</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="J17">
-        <v>0.0003337513606189684</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>47.253984</v>
+        <v>49.89274333333334</v>
       </c>
       <c r="N17">
-        <v>141.761952</v>
+        <v>149.67823</v>
       </c>
       <c r="O17">
-        <v>0.8884015114449556</v>
+        <v>0.8663408689480834</v>
       </c>
       <c r="P17">
-        <v>0.8884015114449555</v>
+        <v>0.8663408689480835</v>
       </c>
       <c r="Q17">
-        <v>0.371132790336</v>
+        <v>4.632774051302222</v>
       </c>
       <c r="R17">
-        <v>3.340195113024</v>
+        <v>41.69496646172</v>
       </c>
       <c r="S17">
-        <v>0.000296505213220702</v>
+        <v>0.003564561905061484</v>
       </c>
       <c r="T17">
-        <v>0.0002965052132207019</v>
+        <v>0.003564561905061484</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.007854</v>
+        <v>0.09285466666666665</v>
       </c>
       <c r="H18">
-        <v>0.023562</v>
+        <v>0.278564</v>
       </c>
       <c r="I18">
-        <v>0.0003337513606189685</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="J18">
-        <v>0.0003337513606189684</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>12.067552</v>
       </c>
       <c r="O18">
-        <v>0.07562559124637756</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="P18">
-        <v>0.07562559124637755</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="Q18">
-        <v>0.03159285113599999</v>
+        <v>0.3735095061475555</v>
       </c>
       <c r="R18">
-        <v>0.284335660224</v>
+        <v>3.361585555327999</v>
       </c>
       <c r="S18">
-        <v>2.524014397609246E-05</v>
+        <v>0.0002873867238178092</v>
       </c>
       <c r="T18">
-        <v>2.524014397609245E-05</v>
+        <v>0.0002873867238178092</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.007854</v>
+        <v>0.09285466666666665</v>
       </c>
       <c r="H19">
-        <v>0.023562</v>
+        <v>0.278564</v>
       </c>
       <c r="I19">
-        <v>0.0003337513606189685</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="J19">
-        <v>0.0003337513606189684</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.7893206666666667</v>
+        <v>1.266267666666667</v>
       </c>
       <c r="N19">
-        <v>2.367962</v>
+        <v>3.798803</v>
       </c>
       <c r="O19">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="P19">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="Q19">
-        <v>0.006199324516</v>
+        <v>0.1175788620991111</v>
       </c>
       <c r="R19">
-        <v>0.055793920644</v>
+        <v>1.058209758892</v>
       </c>
       <c r="S19">
-        <v>4.952761074484358E-06</v>
+        <v>9.046785533629894E-05</v>
       </c>
       <c r="T19">
-        <v>4.952761074484357E-06</v>
+        <v>9.046785533629895E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.007854</v>
+        <v>0.09285466666666665</v>
       </c>
       <c r="H20">
-        <v>0.023562</v>
+        <v>0.278564</v>
       </c>
       <c r="I20">
-        <v>0.0003337513606189685</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="J20">
-        <v>0.0003337513606189684</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.320979</v>
+        <v>0.2206823333333333</v>
       </c>
       <c r="N20">
-        <v>0.9629369999999999</v>
+        <v>0.6620469999999999</v>
       </c>
       <c r="O20">
-        <v>0.006034585967229564</v>
+        <v>0.003831942516052412</v>
       </c>
       <c r="P20">
-        <v>0.006034585967229563</v>
+        <v>0.003831942516052413</v>
       </c>
       <c r="Q20">
-        <v>0.002520969066</v>
+        <v>0.02049138450088888</v>
       </c>
       <c r="R20">
-        <v>0.022688721594</v>
+        <v>0.184422460508</v>
       </c>
       <c r="S20">
-        <v>2.014051277335001E-06</v>
+        <v>1.576653809682437E-05</v>
       </c>
       <c r="T20">
-        <v>2.014051277335E-06</v>
+        <v>1.576653809682437E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.007854</v>
+        <v>0.09285466666666665</v>
       </c>
       <c r="H21">
-        <v>0.023562</v>
+        <v>0.278564</v>
       </c>
       <c r="I21">
-        <v>0.0003337513606189685</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="J21">
-        <v>0.0003337513606189684</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.803095</v>
+        <v>2.187988666666667</v>
       </c>
       <c r="N21">
-        <v>2.409285</v>
+        <v>6.563966</v>
       </c>
       <c r="O21">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="P21">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="Q21">
-        <v>0.00630750813</v>
+        <v>0.2031649583137777</v>
       </c>
       <c r="R21">
-        <v>0.05676757317</v>
+        <v>1.828484624824</v>
       </c>
       <c r="S21">
-        <v>5.039191070354611E-06</v>
+        <v>0.000156319747699574</v>
       </c>
       <c r="T21">
-        <v>5.039191070354609E-06</v>
+        <v>0.000156319747699574</v>
       </c>
     </row>
   </sheetData>
